--- a/output/fit_clients/fit_round_105.xlsx
+++ b/output/fit_clients/fit_round_105.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2220294748.672379</v>
+        <v>2460763323.168347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07835495514853592</v>
+        <v>0.1136135448044789</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04051430755195103</v>
+        <v>0.04425853895108089</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1110147399.522815</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2282307793.598904</v>
+        <v>1755309463.749529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.170138286737001</v>
+        <v>0.1334946072325352</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04794602370466391</v>
+        <v>0.04959868510893089</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1141153980.510622</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4647500125.600224</v>
+        <v>5199416001.995716</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1003820056299464</v>
+        <v>0.1150261078323076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02346147180980646</v>
+        <v>0.02341763081982032</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2323750122.781057</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3444892312.532353</v>
+        <v>2876800776.484542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08211401319544208</v>
+        <v>0.09854813461483122</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0339415430665458</v>
+        <v>0.03859804765154917</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>42</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1722446196.592581</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1994891698.337677</v>
+        <v>2092012104.341174</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09322244650838291</v>
+        <v>0.1314194985744545</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04402909911247806</v>
+        <v>0.05295573116197629</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>997445879.2548462</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3064860466.96106</v>
+        <v>1908057591.841572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07614096597239917</v>
+        <v>0.07706695778172788</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0385726619304659</v>
+        <v>0.04732739158999539</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>31</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1532430192.073594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3509955069.335947</v>
+        <v>3076843089.675265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1921504902689337</v>
+        <v>0.2020581631735811</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0247400048957169</v>
+        <v>0.02983869709787445</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>34</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1754977644.241452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1657305715.620353</v>
+        <v>1632192117.20936</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1534921470414994</v>
+        <v>0.1611819084220915</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02591912521057288</v>
+        <v>0.0373773160482395</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>828652931.9072528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4077487435.082912</v>
+        <v>5386475639.906209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1681822594422884</v>
+        <v>0.1587419687351858</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04979405540980519</v>
+        <v>0.0544547305743014</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2038743745.379741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3112330316.730737</v>
+        <v>2719292481.244921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1774124239020976</v>
+        <v>0.1601689052591465</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0475062389221534</v>
+        <v>0.03424281593511577</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>44</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1556165109.108618</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2379129014.213281</v>
+        <v>3100718102.959476</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1725334569259026</v>
+        <v>0.1528823600652369</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0375645110166789</v>
+        <v>0.0353295183457773</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>37</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1189564468.212471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5074343699.336606</v>
+        <v>4503012795.291413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08883418182503786</v>
+        <v>0.08118359808539205</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02888521190746607</v>
+        <v>0.02197017124374775</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2537171849.966639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3824643667.449105</v>
+        <v>2485725773.961353</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1250499491114541</v>
+        <v>0.1620026581925531</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04091127323777263</v>
+        <v>0.03372438412340358</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>34</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1912321808.365419</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1190022083.650433</v>
+        <v>1698746117.938658</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09384136812633986</v>
+        <v>0.06646271528707372</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03677283719240856</v>
+        <v>0.0417435794439543</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>595011056.9848101</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1975698419.300511</v>
+        <v>2034146457.162419</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1029096019975698</v>
+        <v>0.1075293632078811</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04027472130022977</v>
+        <v>0.03352337164050859</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>987849287.2453053</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4366752439.869387</v>
+        <v>5313908929.088244</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1515810880695294</v>
+        <v>0.1309874831791815</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03897678204931293</v>
+        <v>0.04696228869048615</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>31</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2183376236.334252</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3370399407.016789</v>
+        <v>2903271754.072412</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1274796789592195</v>
+        <v>0.1586859220025273</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03300239034832439</v>
+        <v>0.02865214765729883</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1685199706.86664</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>887139527.1569111</v>
+        <v>1359021636.587241</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1825130901694343</v>
+        <v>0.1428729357607283</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02037500071935853</v>
+        <v>0.02658991925271009</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>443569765.2685258</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1791144046.177518</v>
+        <v>1718504588.076352</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1510382518802157</v>
+        <v>0.1387928743150687</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03025304038525674</v>
+        <v>0.02840506006727108</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>895572071.6250952</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2094248514.37736</v>
+        <v>2280207467.368661</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07189206471845222</v>
+        <v>0.09475418688376164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03832261181000297</v>
+        <v>0.03521018767382096</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1047124284.026486</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3481671172.360263</v>
+        <v>2494934017.556131</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09001073871123848</v>
+        <v>0.131754815817542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03950902226811578</v>
+        <v>0.04518314140956289</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>29</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1740835618.803697</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1534999436.008267</v>
+        <v>1473484684.211369</v>
       </c>
       <c r="F23" t="n">
-        <v>0.122460313477663</v>
+        <v>0.1246561340375602</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04687589453464153</v>
+        <v>0.04782924832926557</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>767499697.9866227</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3623313380.396488</v>
+        <v>3250784739.458194</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09596391940961488</v>
+        <v>0.1350961499103789</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03695374849977608</v>
+        <v>0.03460310847502648</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>31</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1811656683.469404</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1037593776.14757</v>
+        <v>1407002295.435916</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07839311764288595</v>
+        <v>0.1130461685768139</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02474165481687347</v>
+        <v>0.02261849036646726</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>518796943.3457304</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>888839878.7428237</v>
+        <v>1451561597.956198</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1139385268988188</v>
+        <v>0.1201273919444728</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02993638214902559</v>
+        <v>0.03582850421529635</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>444419884.2080815</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2848232273.093879</v>
+        <v>3335920966.880246</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1455785654777589</v>
+        <v>0.1180161876108066</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02255571354981404</v>
+        <v>0.01689582463147462</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1424116203.821893</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2804142286.294733</v>
+        <v>3771110904.147007</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1018895310704245</v>
+        <v>0.1048713999541505</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03439408710543626</v>
+        <v>0.03689368097379743</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>34</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1402071137.297116</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4185472396.090358</v>
+        <v>5059465313.548459</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0967970944017735</v>
+        <v>0.1432698197287619</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03504592973999157</v>
+        <v>0.03788194476181275</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>49</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2092736202.037128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2060492503.844244</v>
+        <v>1790971591.769451</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09068764029294897</v>
+        <v>0.1040928433148245</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03963264668082661</v>
+        <v>0.02730150260187647</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1030246296.23922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1503921938.448559</v>
+        <v>1361964730.474654</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07461591675272503</v>
+        <v>0.09688514722718901</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03329054245044607</v>
+        <v>0.04461913028110349</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>751960849.0989783</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1193037485.437943</v>
+        <v>1756944218.615666</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1114986973436604</v>
+        <v>0.1176608924401596</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03087940516460072</v>
+        <v>0.03241331426872736</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>596518747.446977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2646172877.878612</v>
+        <v>2148627342.394951</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2022067266694442</v>
+        <v>0.1563600996460176</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04174716473014906</v>
+        <v>0.04608276243204499</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>30</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1323086464.634718</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1089395553.39858</v>
+        <v>1214440691.764743</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09811925411045409</v>
+        <v>0.109136356789454</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01711544484086787</v>
+        <v>0.01957914498740533</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>544697799.829248</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>990484459.6992217</v>
+        <v>1260001569.418862</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07526485034008774</v>
+        <v>0.1072958290692792</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04170318403299413</v>
+        <v>0.0370030512074527</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>495242250.4528936</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2307022158.011468</v>
+        <v>1980768490.830422</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1163184694104655</v>
+        <v>0.1305002656461163</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02633587515709621</v>
+        <v>0.02609455240844285</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1153511116.378697</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2274360903.702302</v>
+        <v>2491399161.380651</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09073854457667135</v>
+        <v>0.07844404443938036</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03989117570027809</v>
+        <v>0.03451263937633166</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>28</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1137180516.828449</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1691267848.872635</v>
+        <v>2053046788.833492</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09831959025538645</v>
+        <v>0.1141817485187324</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03281471244702337</v>
+        <v>0.03844707838205685</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>845633946.6101899</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1755664636.057796</v>
+        <v>1586754332.158286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1843793858451182</v>
+        <v>0.1803253920487495</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02791241069135199</v>
+        <v>0.02184921653595765</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>877832349.5969903</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1752687483.632496</v>
+        <v>1379203658.240662</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1503078674266151</v>
+        <v>0.0979676139633537</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04371738154214564</v>
+        <v>0.03891153944267239</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>876343644.655851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2061409810.289348</v>
+        <v>2374099310.890586</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1303562258505062</v>
+        <v>0.1182854017096005</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04695405005340311</v>
+        <v>0.03357203496136674</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>25</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1030704973.264574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3410577155.790204</v>
+        <v>2715863294.641891</v>
       </c>
       <c r="F42" t="n">
-        <v>0.105482698709898</v>
+        <v>0.09928529413220813</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0390730183070957</v>
+        <v>0.03267782677299311</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1705288566.528011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3065250357.044557</v>
+        <v>2810189110.513697</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1974254397588011</v>
+        <v>0.1468354346264191</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01899338419247251</v>
+        <v>0.02308654662221834</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>33</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1532625170.293996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1828854956.411477</v>
+        <v>1553385996.999133</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08549346348798573</v>
+        <v>0.07329850038895576</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02704435943983383</v>
+        <v>0.02871715636992846</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>914427550.3289236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2438351352.206337</v>
+        <v>2165260670.999131</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1182163249918896</v>
+        <v>0.1483355093310836</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04625809221457881</v>
+        <v>0.03786985645934637</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1219175711.101993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5326672753.09171</v>
+        <v>3750171094.05806</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1446896745007596</v>
+        <v>0.1162074776240596</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05240563502542139</v>
+        <v>0.04151008920924269</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>38</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2663336421.966818</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3132804296.1773</v>
+        <v>5053495985.232944</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1425029951534949</v>
+        <v>0.1585937371505364</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04191588760047172</v>
+        <v>0.03776147824107785</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>28</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1566402098.013686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4259943152.127382</v>
+        <v>3916944372.126492</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09895763279034278</v>
+        <v>0.08128805538391463</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03852589798502728</v>
+        <v>0.02923753382070471</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2129971595.249262</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1340285259.110267</v>
+        <v>1215637232.197115</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1374922068562401</v>
+        <v>0.1441073704844055</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04360886059540206</v>
+        <v>0.03905114169061111</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>670142686.3528556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4197441275.124263</v>
+        <v>3135724714.362472</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1608756641245644</v>
+        <v>0.1734169482015207</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05346892054280623</v>
+        <v>0.04164864889545554</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>36</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2098720612.128803</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1415832113.779392</v>
+        <v>1434480753.983768</v>
       </c>
       <c r="F51" t="n">
-        <v>0.141888400872686</v>
+        <v>0.1306654422943036</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04951888447592051</v>
+        <v>0.04651357927130505</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>707916073.4079068</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3551616699.758638</v>
+        <v>4225132963.127558</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1337279624542278</v>
+        <v>0.08795309336859196</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05545697221875968</v>
+        <v>0.0507185862215153</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>44</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1775808432.688822</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3619365594.298967</v>
+        <v>2558168841.057317</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1347128180229617</v>
+        <v>0.1742610021511479</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02524514484652725</v>
+        <v>0.02997754228815252</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>30</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1809682786.770226</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3185773585.69761</v>
+        <v>3293055700.040683</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1453667578299286</v>
+        <v>0.1086977000452373</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04140111428961697</v>
+        <v>0.03314828121732871</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1592886792.911731</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3955075939.010365</v>
+        <v>3684619417.979994</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1449171190745619</v>
+        <v>0.2076436256773931</v>
       </c>
       <c r="G55" t="n">
-        <v>0.025272807180004</v>
+        <v>0.0293107701174397</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1977537942.357882</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1667202891.87153</v>
+        <v>1891539206.647991</v>
       </c>
       <c r="F56" t="n">
-        <v>0.100243985877946</v>
+        <v>0.1484544765381045</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0515336740160254</v>
+        <v>0.05651231874082011</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>833601463.3525367</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3664442402.109044</v>
+        <v>3285488636.158039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1834339429362409</v>
+        <v>0.1258320796199672</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01797561955911342</v>
+        <v>0.01955955328268668</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>33</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1832221261.184107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1675005840.256713</v>
+        <v>1872335626.355402</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1260970235045906</v>
+        <v>0.1812872126355477</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03940425625909297</v>
+        <v>0.03311803551791263</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>837502935.2313278</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5396211420.451908</v>
+        <v>4559268454.610415</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09183585672438825</v>
+        <v>0.1107525705787557</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03696856328376364</v>
+        <v>0.03925871959629629</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2698105618.769258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3077368311.576698</v>
+        <v>3166970209.712431</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1701688639587484</v>
+        <v>0.183006033333043</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0284240645188869</v>
+        <v>0.02061774163094499</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1538684234.186181</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2401032118.227577</v>
+        <v>2720602885.027872</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1090645984012836</v>
+        <v>0.112041836167621</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0253806437289418</v>
+        <v>0.02226190380004222</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1200516095.996653</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1680033479.911245</v>
+        <v>1660696652.293138</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1654921834490608</v>
+        <v>0.1194538042179779</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03998090754554084</v>
+        <v>0.03299495737992006</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>840016749.9565611</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5468607545.593168</v>
+        <v>4812385733.465469</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07589556612321453</v>
+        <v>0.09072880238703565</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03887183868837006</v>
+        <v>0.04647033578164254</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>30</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2734303769.589658</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4976460309.080056</v>
+        <v>3367876026.955502</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1471271539698711</v>
+        <v>0.1771053896848568</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03254385153737772</v>
+        <v>0.02285108320946212</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>33</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2488230259.007448</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4271658979.460693</v>
+        <v>4351618980.16132</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1461205836149302</v>
+        <v>0.1481671056844523</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02165411854655349</v>
+        <v>0.03218786119792456</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>38</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2135829492.027459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4668282981.229911</v>
+        <v>4054857068.627972</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1038644263468948</v>
+        <v>0.1062100362134095</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0405213628918617</v>
+        <v>0.04050078916193186</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>31</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2334141499.917458</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2382608093.546876</v>
+        <v>2800469078.827388</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09682111685397404</v>
+        <v>0.07220041340215147</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04605565655824539</v>
+        <v>0.0396368171709256</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>34</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1191304117.251264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4245363702.549397</v>
+        <v>4810249740.594481</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1548262139719005</v>
+        <v>0.1248884687275658</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03648975642010044</v>
+        <v>0.0501555023070366</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>33</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2122681861.871746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1887787926.921317</v>
+        <v>2474573798.047365</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1798863826270858</v>
+        <v>0.1485414676594635</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05590399093154434</v>
+        <v>0.04665473212781471</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>943893953.8666633</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3025873630.108922</v>
+        <v>3096571268.915248</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06287183888605255</v>
+        <v>0.08135229748959193</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04146574993067466</v>
+        <v>0.03189021099485054</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>30</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1512936793.647065</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5442767350.95082</v>
+        <v>4636638012.909882</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1698014053726504</v>
+        <v>0.1706067304298476</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02265068196986307</v>
+        <v>0.03089091512987842</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>38</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2721383814.155557</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1500694360.880059</v>
+        <v>1550170599.259354</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07335968328747236</v>
+        <v>0.08797068712044331</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04491588579423168</v>
+        <v>0.03295995890474898</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>750347207.2705543</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3471185496.926027</v>
+        <v>2218515623.909648</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08620867987949662</v>
+        <v>0.08314658932021049</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05165178578047826</v>
+        <v>0.05062105766835484</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>40</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1735592701.246304</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3831888090.920375</v>
+        <v>2819517276.76801</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1154457309639375</v>
+        <v>0.146484347098652</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02357689480427896</v>
+        <v>0.03052051375628726</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>36</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1915944038.910836</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2083616451.181205</v>
+        <v>2198203364.958213</v>
       </c>
       <c r="F75" t="n">
-        <v>0.167156782153557</v>
+        <v>0.1319932247857732</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03069443540356232</v>
+        <v>0.03199606956074475</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1041808181.842885</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4001440080.043949</v>
+        <v>4250608860.565388</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09993156434238688</v>
+        <v>0.1034486356231503</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03263810273206112</v>
+        <v>0.02700429432357589</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2000720024.74683</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1812922499.35148</v>
+        <v>1999233143.81336</v>
       </c>
       <c r="F77" t="n">
-        <v>0.113126351529227</v>
+        <v>0.1322302463660528</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0208316187345851</v>
+        <v>0.02970797932163657</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>906461283.5373487</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3965846067.510821</v>
+        <v>2948562011.178653</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1305420109691449</v>
+        <v>0.1036282572441404</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0540577262366159</v>
+        <v>0.03446769650916525</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>38</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1982923001.873028</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1482962490.701434</v>
+        <v>1275409792.65017</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1302981961514066</v>
+        <v>0.1401167135302251</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03559833033747428</v>
+        <v>0.03414060988226295</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>741481276.5112153</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4811169103.250057</v>
+        <v>4151331140.502947</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08930456742065232</v>
+        <v>0.1028606533335216</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03005484741083989</v>
+        <v>0.03057555866256179</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>22</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2405584591.372635</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4232296860.923462</v>
+        <v>4402485615.627077</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09559961459786342</v>
+        <v>0.1171143769643618</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03232057866780701</v>
+        <v>0.03228783726488293</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2116148402.247305</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4928104811.394536</v>
+        <v>4435185744.033754</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2013616884010523</v>
+        <v>0.1956832862242262</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02579757220854158</v>
+        <v>0.02891533342298708</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2464052393.618182</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2185420808.927703</v>
+        <v>1735638849.839915</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1526607662875226</v>
+        <v>0.118697111956668</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04016741113570094</v>
+        <v>0.03066019225488959</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1092710412.824831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1628320764.26024</v>
+        <v>2414942527.316018</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09502506428513292</v>
+        <v>0.1025249633152657</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04423263152221642</v>
+        <v>0.05169204134108945</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>814160441.4884906</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3088824587.793523</v>
+        <v>2536507751.970363</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1190062565484306</v>
+        <v>0.1798395193588017</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05659236007431142</v>
+        <v>0.03715177529185811</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>37</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1544412363.799189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2710688614.270569</v>
+        <v>2000842346.889699</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1553497431226298</v>
+        <v>0.1192169021815748</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02555595925604921</v>
+        <v>0.0215842722457973</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1355344433.537137</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1234017849.9058</v>
+        <v>1058093927.344815</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1668128843349375</v>
+        <v>0.1812289763553396</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02776182565001298</v>
+        <v>0.03340618658990012</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>617008989.1950735</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2815103093.655473</v>
+        <v>2890595859.209872</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1613652402127702</v>
+        <v>0.1084408183255249</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02888017784443582</v>
+        <v>0.03819408045937951</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>42</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1407551558.939512</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2342735111.589722</v>
+        <v>2937281273.797093</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1073140201779274</v>
+        <v>0.1484213412327382</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04086758033776311</v>
+        <v>0.02653325497498851</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>35</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1171367642.018285</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1644633797.802486</v>
+        <v>2052485741.14284</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1380835663589509</v>
+        <v>0.1280746127541929</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03520502510347163</v>
+        <v>0.04516807509560537</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>822316904.0231465</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1595133920.363826</v>
+        <v>1268964360.430187</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1179645392441733</v>
+        <v>0.1856434358700319</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04530347474730855</v>
+        <v>0.04929374801332875</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>797566986.3416375</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2916269804.400959</v>
+        <v>2959665529.157521</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08371928337032154</v>
+        <v>0.1019214242753211</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0353076948738006</v>
+        <v>0.03869807067641567</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>22</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1458134917.529579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3092485606.137908</v>
+        <v>3575615065.581644</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09615371356299361</v>
+        <v>0.1105954402513962</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05076297519409734</v>
+        <v>0.04683247524659092</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>32</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1546242862.278972</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1949213317.841316</v>
+        <v>2163246057.91578</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1464280146637314</v>
+        <v>0.14566617162794</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03300109832924426</v>
+        <v>0.04255447425103463</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>974606650.6080914</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3174845860.080241</v>
+        <v>3196364318.083933</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08701647883822181</v>
+        <v>0.1047980454889247</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04802039275606809</v>
+        <v>0.03549730076225931</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>25</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1587422917.017268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1522148639.446277</v>
+        <v>1859073353.52045</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0856472784123124</v>
+        <v>0.08961294544215576</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04412670473508268</v>
+        <v>0.03823955153095411</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>761074357.6580633</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4075075697.437167</v>
+        <v>3750544663.422056</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1688513130146663</v>
+        <v>0.1257198913095554</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02880802369958268</v>
+        <v>0.02707703579668594</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>34</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2037537911.079377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3198720905.852615</v>
+        <v>3622766925.127882</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09803488967544727</v>
+        <v>0.09500224537484847</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02945335927318963</v>
+        <v>0.02696762364330745</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>28</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1599360451.033401</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2120350220.260915</v>
+        <v>3432169631.357456</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1338367076093547</v>
+        <v>0.1145033117800956</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02508264863498077</v>
+        <v>0.02356141186355838</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>34</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1060175032.270869</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4105262699.133801</v>
+        <v>3040959141.091084</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1375644989891731</v>
+        <v>0.1238461113581623</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02590561988637024</v>
+        <v>0.02062651083071071</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>32</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2052631428.58226</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2677777885.700227</v>
+        <v>2323423741.310048</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1354747253230937</v>
+        <v>0.1581105609253678</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04106371525363622</v>
+        <v>0.05069535151587411</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>44</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1338888989.265406</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_105.xlsx
+++ b/output/fit_clients/fit_round_105.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2460763323.168347</v>
+        <v>1658170177.329506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1136135448044789</v>
+        <v>0.07031891603053249</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04425853895108089</v>
+        <v>0.04349689397506498</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1755309463.749529</v>
+        <v>2384431160.49263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1334946072325352</v>
+        <v>0.1460246136182496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04959868510893089</v>
+        <v>0.0407062349075775</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5199416001.995716</v>
+        <v>3921592088.756389</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1150261078323076</v>
+        <v>0.1413996416669543</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02341763081982032</v>
+        <v>0.02687770138357061</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2876800776.484542</v>
+        <v>2699921108.517243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09854813461483122</v>
+        <v>0.1024330147301451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03859804765154917</v>
+        <v>0.04306252782625196</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2092012104.341174</v>
+        <v>2271751046.082911</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1314194985744545</v>
+        <v>0.1399972044415708</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05295573116197629</v>
+        <v>0.04556013233575426</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1908057591.841572</v>
+        <v>1908168751.322122</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07706695778172788</v>
+        <v>0.08444541171831459</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04732739158999539</v>
+        <v>0.044179416252633</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3076843089.675265</v>
+        <v>2639127112.048488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2020581631735811</v>
+        <v>0.1860047751767186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02983869709787445</v>
+        <v>0.03029056936307296</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1632192117.20936</v>
+        <v>2228561693.921016</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1611819084220915</v>
+        <v>0.1595925904162395</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0373773160482395</v>
+        <v>0.0327713864166208</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5386475639.906209</v>
+        <v>5173182010.420779</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1587419687351858</v>
+        <v>0.1962508931854176</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0544547305743014</v>
+        <v>0.03488960323904274</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2719292481.244921</v>
+        <v>4197356521.204659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1601689052591465</v>
+        <v>0.1250160037965868</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03424281593511577</v>
+        <v>0.03461504782905982</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3100718102.959476</v>
+        <v>2467814022.930229</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1528823600652369</v>
+        <v>0.1658846853131736</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0353295183457773</v>
+        <v>0.05217263820481867</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4503012795.291413</v>
+        <v>3731297092.083899</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08118359808539205</v>
+        <v>0.09536204253683217</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02197017124374775</v>
+        <v>0.02565489001827417</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2485725773.961353</v>
+        <v>3554181327.078844</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1620026581925531</v>
+        <v>0.1488363290569703</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03372438412340358</v>
+        <v>0.04181498478498059</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1698746117.938658</v>
+        <v>1643311526.511153</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06646271528707372</v>
+        <v>0.08535429745728271</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0417435794439543</v>
+        <v>0.04209022557029466</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2034146457.162419</v>
+        <v>2064311283.259643</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1075293632078811</v>
+        <v>0.08726067459830462</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03352337164050859</v>
+        <v>0.04892671673164878</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5313908929.088244</v>
+        <v>5102425687.44881</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1309874831791815</v>
+        <v>0.160158421556237</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04696228869048615</v>
+        <v>0.03303805040944378</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2903271754.072412</v>
+        <v>2913092406.915653</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1586859220025273</v>
+        <v>0.1587718082603016</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02865214765729883</v>
+        <v>0.02238039434924706</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1359021636.587241</v>
+        <v>978918691.8563663</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1428729357607283</v>
+        <v>0.1773828953680451</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02658991925271009</v>
+        <v>0.01890697084574703</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1718504588.076352</v>
+        <v>1773606235.420898</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1387928743150687</v>
+        <v>0.1323585236383219</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02840506006727108</v>
+        <v>0.02902853764148604</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2280207467.368661</v>
+        <v>2350124516.056261</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09475418688376164</v>
+        <v>0.09399805422201878</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03521018767382096</v>
+        <v>0.03495374655591151</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2494934017.556131</v>
+        <v>3412953025.975467</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131754815817542</v>
+        <v>0.1194697258275599</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04518314140956289</v>
+        <v>0.04381598832980347</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1473484684.211369</v>
+        <v>1496413609.890406</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1246561340375602</v>
+        <v>0.1623517621527824</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04782924832926557</v>
+        <v>0.04939476402497186</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3250784739.458194</v>
+        <v>3284877003.054024</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1350961499103789</v>
+        <v>0.1132165169181076</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03460310847502648</v>
+        <v>0.03708231387505947</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1407002295.435916</v>
+        <v>1245296319.310717</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1130461685768139</v>
+        <v>0.1132918681498001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02261849036646726</v>
+        <v>0.02755418596777768</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1451561597.956198</v>
+        <v>1351182650.193043</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1201273919444728</v>
+        <v>0.1153651971450881</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03582850421529635</v>
+        <v>0.02640999844991433</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3335920966.880246</v>
+        <v>4701445722.947815</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1180161876108066</v>
+        <v>0.1009888629546171</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01689582463147462</v>
+        <v>0.02324610548886633</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3771110904.147007</v>
+        <v>3554571229.513196</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1048713999541505</v>
+        <v>0.1253463882491458</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03689368097379743</v>
+        <v>0.03840864937054525</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5059465313.548459</v>
+        <v>4108310276.790464</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1432698197287619</v>
+        <v>0.09913626631287974</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03788194476181275</v>
+        <v>0.03828314363695761</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1790971591.769451</v>
+        <v>2341556451.669298</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1040928433148245</v>
+        <v>0.1226876074515908</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02730150260187647</v>
+        <v>0.03918958354309546</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1361964730.474654</v>
+        <v>1066373611.449889</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09688514722718901</v>
+        <v>0.1053837757206893</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04461913028110349</v>
+        <v>0.03367175429111047</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1756944218.615666</v>
+        <v>1578991588.578063</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1176608924401596</v>
+        <v>0.08491561646969098</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03241331426872736</v>
+        <v>0.02662841676434754</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2148627342.394951</v>
+        <v>2537917864.222406</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1563600996460176</v>
+        <v>0.1389635237277372</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04608276243204499</v>
+        <v>0.05058843223164005</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1214440691.764743</v>
+        <v>1164053770.190793</v>
       </c>
       <c r="F34" t="n">
-        <v>0.109136356789454</v>
+        <v>0.1207134731555997</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01957914498740533</v>
+        <v>0.02575108425033268</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1260001569.418862</v>
+        <v>1228858218.249977</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1072958290692792</v>
+        <v>0.08906778467676937</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0370030512074527</v>
+        <v>0.0415782743629466</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1980768490.830422</v>
+        <v>2764348787.075068</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1305002656461163</v>
+        <v>0.1164032328269205</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02609455240844285</v>
+        <v>0.0203428113283972</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2491399161.380651</v>
+        <v>2892942390.297792</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07844404443938036</v>
+        <v>0.1004626484601388</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03451263937633166</v>
+        <v>0.04046311654027317</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2053046788.833492</v>
+        <v>1733706976.522326</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1141817485187324</v>
+        <v>0.08363183751520153</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03844707838205685</v>
+        <v>0.02921380025310661</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1586754332.158286</v>
+        <v>1963100949.994131</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1803253920487495</v>
+        <v>0.1287116675036971</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02184921653595765</v>
+        <v>0.02397755790352232</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1379203658.240662</v>
+        <v>1704713428.929459</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0979676139633537</v>
+        <v>0.1061556044327284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03891153944267239</v>
+        <v>0.04639464392126626</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2374099310.890586</v>
+        <v>2851400545.335062</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1182854017096005</v>
+        <v>0.12842018406877</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03357203496136674</v>
+        <v>0.04140041551165589</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2715863294.641891</v>
+        <v>4211925978.361885</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09928529413220813</v>
+        <v>0.1207429698783117</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03267782677299311</v>
+        <v>0.0286402582007125</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2810189110.513697</v>
+        <v>2605132951.457448</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1468354346264191</v>
+        <v>0.1998198573247221</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02308654662221834</v>
+        <v>0.02012163412487093</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1553385996.999133</v>
+        <v>1963271240.228236</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07329850038895576</v>
+        <v>0.1027285081854585</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02871715636992846</v>
+        <v>0.03100372709979261</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2165260670.999131</v>
+        <v>2327024733.411923</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1483355093310836</v>
+        <v>0.1209452127101522</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03786985645934637</v>
+        <v>0.05268712067949197</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3750171094.05806</v>
+        <v>3696611798.710451</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1162074776240596</v>
+        <v>0.1310403576484422</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04151008920924269</v>
+        <v>0.039700270819137</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5053495985.232944</v>
+        <v>3415160628.890633</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1585937371505364</v>
+        <v>0.1940213553933433</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03776147824107785</v>
+        <v>0.05894103290730565</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3916944372.126492</v>
+        <v>4644301559.72171</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08128805538391463</v>
+        <v>0.07942965439530859</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02923753382070471</v>
+        <v>0.02642624221250111</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1215637232.197115</v>
+        <v>1248754101.969958</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1441073704844055</v>
+        <v>0.1953373804826374</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03905114169061111</v>
+        <v>0.03030931997259584</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3135724714.362472</v>
+        <v>3550479884.475193</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1734169482015207</v>
+        <v>0.1671338608334208</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04164864889545554</v>
+        <v>0.03580016575387004</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1434480753.983768</v>
+        <v>1288547414.223954</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1306654422943036</v>
+        <v>0.1884040981576135</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04651357927130505</v>
+        <v>0.03996565704673741</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4225132963.127558</v>
+        <v>4738245632.797148</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08795309336859196</v>
+        <v>0.100189709210006</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0507185862215153</v>
+        <v>0.05120792954623217</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2558168841.057317</v>
+        <v>3090847096.789461</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1742610021511479</v>
+        <v>0.179681035603975</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02997754228815252</v>
+        <v>0.03040391151111479</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3293055700.040683</v>
+        <v>3186176637.184381</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1086977000452373</v>
+        <v>0.1028550606797921</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03314828121732871</v>
+        <v>0.041173261196787</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3684619417.979994</v>
+        <v>3075082565.102105</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2076436256773931</v>
+        <v>0.1788957465726569</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0293107701174397</v>
+        <v>0.02204999200182482</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1891539206.647991</v>
+        <v>1563059176.082226</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1484544765381045</v>
+        <v>0.1383081530393543</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05651231874082011</v>
+        <v>0.03993105522428152</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3285488636.158039</v>
+        <v>3024665152.371734</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1258320796199672</v>
+        <v>0.1797920060088548</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01955955328268668</v>
+        <v>0.02612791378770949</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1872335626.355402</v>
+        <v>1226020691.944949</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1812872126355477</v>
+        <v>0.1569252287705104</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03311803551791263</v>
+        <v>0.03124232477271977</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4559268454.610415</v>
+        <v>3884738150.557789</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1107525705787557</v>
+        <v>0.1307091862573203</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03925871959629629</v>
+        <v>0.03833107998432633</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3166970209.712431</v>
+        <v>3281735711.409369</v>
       </c>
       <c r="F60" t="n">
-        <v>0.183006033333043</v>
+        <v>0.1710937564633961</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02061774163094499</v>
+        <v>0.02823541412967749</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2720602885.027872</v>
+        <v>2293079492.585598</v>
       </c>
       <c r="F61" t="n">
-        <v>0.112041836167621</v>
+        <v>0.1457418832497198</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02226190380004222</v>
+        <v>0.02304865932867503</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1660696652.293138</v>
+        <v>1967759251.979224</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1194538042179779</v>
+        <v>0.1729932978035406</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03299495737992006</v>
+        <v>0.04528774949635343</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4812385733.465469</v>
+        <v>4935732368.130569</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09072880238703565</v>
+        <v>0.09880523910074882</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04647033578164254</v>
+        <v>0.04397975838674819</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3367876026.955502</v>
+        <v>3457886116.172386</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1771053896848568</v>
+        <v>0.1918623470450202</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02285108320946212</v>
+        <v>0.03189049308113363</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4351618980.16132</v>
+        <v>5782328279.137197</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1481671056844523</v>
+        <v>0.1526937094987473</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03218786119792456</v>
+        <v>0.02580993155984113</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4054857068.627972</v>
+        <v>4583280894.517467</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1062100362134095</v>
+        <v>0.09974885346220362</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04050078916193186</v>
+        <v>0.04695142525116957</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2800469078.827388</v>
+        <v>2560826211.754857</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07220041340215147</v>
+        <v>0.06938711170691468</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0396368171709256</v>
+        <v>0.03432546884091364</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4810249740.594481</v>
+        <v>5442486297.369411</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1248884687275658</v>
+        <v>0.1108851613553806</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0501555023070366</v>
+        <v>0.04998410250147875</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2474573798.047365</v>
+        <v>2101277565.194705</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1485414676594635</v>
+        <v>0.1304550264053906</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04665473212781471</v>
+        <v>0.04838661715175301</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3096571268.915248</v>
+        <v>2348876338.58006</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08135229748959193</v>
+        <v>0.0744738871509914</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03189021099485054</v>
+        <v>0.03528076968367545</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4636638012.909882</v>
+        <v>4466527595.281055</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1706067304298476</v>
+        <v>0.1388799639662603</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03089091512987842</v>
+        <v>0.02513746603308258</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1550170599.259354</v>
+        <v>1996739620.47316</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08797068712044331</v>
+        <v>0.09494980210327185</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03295995890474898</v>
+        <v>0.04095393109519008</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2218515623.909648</v>
+        <v>3441248288.283038</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08314658932021049</v>
+        <v>0.0980291041345219</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05062105766835484</v>
+        <v>0.04568907294414771</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2819517276.76801</v>
+        <v>3951708899.583609</v>
       </c>
       <c r="F74" t="n">
-        <v>0.146484347098652</v>
+        <v>0.1631689588987033</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03052051375628726</v>
+        <v>0.02258198502482818</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2198203364.958213</v>
+        <v>2024032460.592981</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1319932247857732</v>
+        <v>0.1663819304055099</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03199606956074475</v>
+        <v>0.02678953076785813</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4250608860.565388</v>
+        <v>4364876394.807201</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1034486356231503</v>
+        <v>0.1014801963981186</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02700429432357589</v>
+        <v>0.03034761657141352</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1999233143.81336</v>
+        <v>1701966588.233771</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1322302463660528</v>
+        <v>0.1291955878908985</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02970797932163657</v>
+        <v>0.02162790677245811</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2948562011.178653</v>
+        <v>4163928077.859477</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1036282572441404</v>
+        <v>0.1172264686771715</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03446769650916525</v>
+        <v>0.04489566377715387</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1275409792.65017</v>
+        <v>1705820464.740228</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1401167135302251</v>
+        <v>0.1164545033759991</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03414060988226295</v>
+        <v>0.03210405045925992</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4151331140.502947</v>
+        <v>4323974892.074687</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1028606533335216</v>
+        <v>0.1036901490571082</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03057555866256179</v>
+        <v>0.03846460392121136</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4402485615.627077</v>
+        <v>3786602751.68294</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1171143769643618</v>
+        <v>0.1050810017853984</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03228783726488293</v>
+        <v>0.02985021178777343</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4435185744.033754</v>
+        <v>4900693196.120895</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1956832862242262</v>
+        <v>0.1458850127401295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02891533342298708</v>
+        <v>0.01787360113944186</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1735638849.839915</v>
+        <v>2362767814.262499</v>
       </c>
       <c r="F83" t="n">
-        <v>0.118697111956668</v>
+        <v>0.1520151027715997</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03066019225488959</v>
+        <v>0.03258611515572495</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2414942527.316018</v>
+        <v>2143770801.082402</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1025249633152657</v>
+        <v>0.1115407977782974</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05169204134108945</v>
+        <v>0.04338102041610799</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2536507751.970363</v>
+        <v>2305531062.8439</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1798395193588017</v>
+        <v>0.1116964735341601</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03715177529185811</v>
+        <v>0.04061854319391821</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2000842346.889699</v>
+        <v>2707958918.090119</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1192169021815748</v>
+        <v>0.1293419938868476</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0215842722457973</v>
+        <v>0.02122558469410492</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1058093927.344815</v>
+        <v>1479058325.925781</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1812289763553396</v>
+        <v>0.1592425621471025</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03340618658990012</v>
+        <v>0.03438799426679415</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2890595859.209872</v>
+        <v>3037174529.650602</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1084408183255249</v>
+        <v>0.1299739630643641</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03819408045937951</v>
+        <v>0.02618223577156906</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2937281273.797093</v>
+        <v>2478647776.712147</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1484213412327382</v>
+        <v>0.1277658019845243</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02653325497498851</v>
+        <v>0.03485470625621995</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2052485741.14284</v>
+        <v>1488592436.701019</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1280746127541929</v>
+        <v>0.1322775376347413</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04516807509560537</v>
+        <v>0.05217221452675093</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1268964360.430187</v>
+        <v>1300801066.566632</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1856434358700319</v>
+        <v>0.1814281618280598</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04929374801332875</v>
+        <v>0.04793923904120836</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2959665529.157521</v>
+        <v>2163454468.339525</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1019214242753211</v>
+        <v>0.07845787264729279</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03869807067641567</v>
+        <v>0.0410863431514101</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3575615065.581644</v>
+        <v>3626712937.140741</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1105954402513962</v>
+        <v>0.08716075230103533</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04683247524659092</v>
+        <v>0.05439715307405407</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2163246057.91578</v>
+        <v>2029555729.23032</v>
       </c>
       <c r="F94" t="n">
-        <v>0.14566617162794</v>
+        <v>0.1064878830810406</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04255447425103463</v>
+        <v>0.03732656092636797</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3196364318.083933</v>
+        <v>3198866440.320784</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1047980454889247</v>
+        <v>0.1325417134287367</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03549730076225931</v>
+        <v>0.04691052152740235</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1859073353.52045</v>
+        <v>2233274258.70821</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08961294544215576</v>
+        <v>0.09805997980894519</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03823955153095411</v>
+        <v>0.04047848916014472</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3750544663.422056</v>
+        <v>3334962223.973987</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1257198913095554</v>
+        <v>0.1726637004185061</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02707703579668594</v>
+        <v>0.02859478929608931</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3622766925.127882</v>
+        <v>3814306807.945141</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09500224537484847</v>
+        <v>0.09802446451892813</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02696762364330745</v>
+        <v>0.02324645497176805</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3432169631.357456</v>
+        <v>3424073939.741238</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1145033117800956</v>
+        <v>0.1203861391268409</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02356141186355838</v>
+        <v>0.0322032581481844</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3040959141.091084</v>
+        <v>3602674032.948509</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1238461113581623</v>
+        <v>0.1470983293361928</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02062651083071071</v>
+        <v>0.02253941510663978</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2323423741.310048</v>
+        <v>3374755828.843567</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1581105609253678</v>
+        <v>0.1497675362943331</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05069535151587411</v>
+        <v>0.04674428944418058</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_105.xlsx
+++ b/output/fit_clients/fit_round_105.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1658170177.329506</v>
+        <v>1537993841.017211</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07031891603053249</v>
+        <v>0.0956057682638724</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04349689397506498</v>
+        <v>0.0368882100658692</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2384431160.49263</v>
+        <v>1961132577.246536</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1460246136182496</v>
+        <v>0.1148181266049048</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0407062349075775</v>
+        <v>0.04023437613864948</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3921592088.756389</v>
+        <v>3584060409.717963</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1413996416669543</v>
+        <v>0.1413806280152849</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02687770138357061</v>
+        <v>0.03739841659969916</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>65</v>
+      </c>
+      <c r="J4" t="n">
+        <v>104</v>
+      </c>
+      <c r="K4" t="n">
+        <v>145.2541114514225</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2699921108.517243</v>
+        <v>3203072894.031267</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1024330147301451</v>
+        <v>0.1063818317570273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04306252782625196</v>
+        <v>0.03113182366523812</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>104</v>
+      </c>
+      <c r="K5" t="n">
+        <v>129.6893234202124</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2271751046.082911</v>
+        <v>1913197498.140732</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1399972044415708</v>
+        <v>0.1355990122259735</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04556013233575426</v>
+        <v>0.05122730325073976</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1908168751.322122</v>
+        <v>2427042107.139557</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08444541171831459</v>
+        <v>0.07464391912913872</v>
       </c>
       <c r="G7" t="n">
-        <v>0.044179416252633</v>
+        <v>0.03463820629259307</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2639127112.048488</v>
+        <v>2450547382.94529</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1860047751767186</v>
+        <v>0.1906164548244214</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03029056936307296</v>
+        <v>0.03308118828295253</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>103</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2228561693.921016</v>
+        <v>1540041628.471687</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1595925904162395</v>
+        <v>0.154896361321009</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0327713864166208</v>
+        <v>0.02771427016335021</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5173182010.420779</v>
+        <v>5403831972.906438</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1962508931854176</v>
+        <v>0.1594079079937936</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03488960323904274</v>
+        <v>0.04651845772190364</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>97</v>
+      </c>
+      <c r="J10" t="n">
+        <v>105</v>
+      </c>
+      <c r="K10" t="n">
+        <v>175.8603902939471</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4197356521.204659</v>
+        <v>4150580931.156818</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1250160037965868</v>
+        <v>0.1161061220198532</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03461504782905982</v>
+        <v>0.04133873887536015</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44</v>
+      </c>
+      <c r="J11" t="n">
+        <v>105</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2467814022.930229</v>
+        <v>2188033559.31437</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1658846853131736</v>
+        <v>0.1672485207213753</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05217263820481867</v>
+        <v>0.03663588748523613</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3731297092.083899</v>
+        <v>3365860525.687026</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09536204253683217</v>
+        <v>0.09670658409473533</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02565489001827417</v>
+        <v>0.01901276140679644</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>52</v>
+      </c>
+      <c r="J13" t="n">
+        <v>105</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3554181327.078844</v>
+        <v>2783400721.472604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1488363290569703</v>
+        <v>0.1593628257644436</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04181498478498059</v>
+        <v>0.03717514512573176</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="n">
+        <v>85.69107239907758</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1643311526.511153</v>
+        <v>1725632871.924946</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08535429745728271</v>
+        <v>0.09026529376708999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04209022557029466</v>
+        <v>0.03985880032817859</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2064311283.259643</v>
+        <v>2181945683.432028</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08726067459830462</v>
+        <v>0.08740049310897045</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04892671673164878</v>
+        <v>0.03519607374744977</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5102425687.44881</v>
+        <v>4478845944.1244</v>
       </c>
       <c r="F17" t="n">
-        <v>0.160158421556237</v>
+        <v>0.1324397841388085</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03303805040944378</v>
+        <v>0.05154660369326545</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="n">
+        <v>105</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2913092406.915653</v>
+        <v>3969482736.949266</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1587718082603016</v>
+        <v>0.184529934959461</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02238039434924706</v>
+        <v>0.02149941614941627</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>105</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>978918691.8563663</v>
+        <v>1308614296.738326</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1773828953680451</v>
+        <v>0.1455204623083377</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01890697084574703</v>
+        <v>0.01872493166155473</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1773606235.420898</v>
+        <v>2095126065.188489</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1323585236383219</v>
+        <v>0.1526641743174299</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02902853764148604</v>
+        <v>0.02844725909955866</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2350124516.056261</v>
+        <v>1904552894.80537</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09399805422201878</v>
+        <v>0.07337479483957116</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03495374655591151</v>
+        <v>0.03943615944149523</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3412953025.975467</v>
+        <v>2552840089.141695</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1194697258275599</v>
+        <v>0.1082214316695993</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04381598832980347</v>
+        <v>0.05197333498790884</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>26</v>
+      </c>
+      <c r="J22" t="n">
+        <v>103</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1496413609.890406</v>
+        <v>1139417853.782452</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1623517621527824</v>
+        <v>0.1337104458574457</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04939476402497186</v>
+        <v>0.03954455842945567</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3284877003.054024</v>
+        <v>3848045611.495072</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1132165169181076</v>
+        <v>0.1292394283582178</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03708231387505947</v>
+        <v>0.02812303700814093</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>31</v>
+      </c>
+      <c r="J24" t="n">
+        <v>104</v>
+      </c>
+      <c r="K24" t="n">
+        <v>146.8466007978614</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1245296319.310717</v>
+        <v>1314258928.670437</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1132918681498001</v>
+        <v>0.102071809604356</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02755418596777768</v>
+        <v>0.02799804225338011</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1351182650.193043</v>
+        <v>1448166048.244637</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1153651971450881</v>
+        <v>0.07774528683634785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02640999844991433</v>
+        <v>0.02863344658431866</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4701445722.947815</v>
+        <v>2848433256.774394</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1009888629546171</v>
+        <v>0.1288503527181704</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02324610548886633</v>
+        <v>0.02153370877448368</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>41</v>
+      </c>
+      <c r="J27" t="n">
+        <v>103</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3554571229.513196</v>
+        <v>3117268551.346472</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1253463882491458</v>
+        <v>0.149155291135951</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03840864937054525</v>
+        <v>0.04468104122375088</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4108310276.790464</v>
+        <v>4654429257.514307</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09913626631287974</v>
+        <v>0.1446410001993337</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03828314363695761</v>
+        <v>0.02920678117252267</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>98</v>
+      </c>
+      <c r="J29" t="n">
+        <v>105</v>
+      </c>
+      <c r="K29" t="n">
+        <v>187.7522293012572</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2341556451.669298</v>
+        <v>2324653954.968012</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1226876074515908</v>
+        <v>0.1181759466447308</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03918958354309546</v>
+        <v>0.03633901196675735</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1066373611.449889</v>
+        <v>962685482.6522267</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1053837757206893</v>
+        <v>0.07505934357483911</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03367175429111047</v>
+        <v>0.0507843731931044</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1578991588.578063</v>
+        <v>1612471423.45524</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08491561646969098</v>
+        <v>0.07797932330390041</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02662841676434754</v>
+        <v>0.03710016971463935</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2537917864.222406</v>
+        <v>2961765540.033897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1389635237277372</v>
+        <v>0.191319432554501</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05058843223164005</v>
+        <v>0.05729161919004273</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1164053770.190793</v>
+        <v>1239725292.56151</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1207134731555997</v>
+        <v>0.07665325799438646</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02575108425033268</v>
+        <v>0.02446037350256456</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1228858218.249977</v>
+        <v>1204847762.190824</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08906778467676937</v>
+        <v>0.08529530501934809</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0415782743629466</v>
+        <v>0.04026312188577783</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2764348787.075068</v>
+        <v>3245005671.605446</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1164032328269205</v>
+        <v>0.136412060195743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0203428113283972</v>
+        <v>0.01814348550971753</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2892942390.297792</v>
+        <v>1793251782.891027</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1004626484601388</v>
+        <v>0.09683815865374093</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04046311654027317</v>
+        <v>0.03476102345499132</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1733706976.522326</v>
+        <v>2061516794.508366</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08363183751520153</v>
+        <v>0.100888849373258</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02921380025310661</v>
+        <v>0.03332828908697363</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1963100949.994131</v>
+        <v>1802408485.012361</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1287116675036971</v>
+        <v>0.1512927363784298</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02397755790352232</v>
+        <v>0.02458616359772879</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1704713428.929459</v>
+        <v>1457210828.620632</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1061556044327284</v>
+        <v>0.157609796705599</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04639464392126626</v>
+        <v>0.03666151210405942</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2851400545.335062</v>
+        <v>2658359136.924812</v>
       </c>
       <c r="F41" t="n">
-        <v>0.12842018406877</v>
+        <v>0.1566365790916728</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04140041551165589</v>
+        <v>0.04275191805129771</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4211925978.361885</v>
+        <v>2903553925.86354</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1207429698783117</v>
+        <v>0.1083125531347427</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0286402582007125</v>
+        <v>0.03871508262227374</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>104</v>
+      </c>
+      <c r="K42" t="n">
+        <v>99.51805226941157</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2605132951.457448</v>
+        <v>2214930760.472047</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1998198573247221</v>
+        <v>0.1792507282282536</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02012163412487093</v>
+        <v>0.01700901420933635</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1963271240.228236</v>
+        <v>2258197543.00249</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1027285081854585</v>
+        <v>0.06662717630557811</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03100372709979261</v>
+        <v>0.02650886640834692</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2327024733.411923</v>
+        <v>1891964074.686037</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1209452127101522</v>
+        <v>0.1549984053416418</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05268712067949197</v>
+        <v>0.03565439823662567</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3696611798.710451</v>
+        <v>4941551053.347052</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1310403576484422</v>
+        <v>0.1694351443185236</v>
       </c>
       <c r="G46" t="n">
-        <v>0.039700270819137</v>
+        <v>0.05457460951044075</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>60</v>
+      </c>
+      <c r="J46" t="n">
+        <v>105</v>
+      </c>
+      <c r="K46" t="n">
+        <v>161.8627473608344</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3415160628.890633</v>
+        <v>4781854357.646399</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1940213553933433</v>
+        <v>0.142912774956984</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05894103290730565</v>
+        <v>0.05630034947834067</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>46</v>
+      </c>
+      <c r="J47" t="n">
+        <v>104</v>
+      </c>
+      <c r="K47" t="n">
+        <v>132.211205890559</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4644301559.72171</v>
+        <v>3339188711.351267</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07942965439530859</v>
+        <v>0.08753682639555888</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02642624221250111</v>
+        <v>0.03894582983765647</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>38</v>
+      </c>
+      <c r="J48" t="n">
+        <v>105</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1248754101.969958</v>
+        <v>1573725864.429497</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1953373804826374</v>
+        <v>0.1648319910564627</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03030931997259584</v>
+        <v>0.03172010807874404</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3550479884.475193</v>
+        <v>2992060407.521946</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1671338608334208</v>
+        <v>0.1408714053772914</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03580016575387004</v>
+        <v>0.03508738233118656</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>37</v>
+      </c>
+      <c r="J50" t="n">
+        <v>103</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1288547414.223954</v>
+        <v>1046752769.425953</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1884040981576135</v>
+        <v>0.1806086377733644</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03996565704673741</v>
+        <v>0.04003886953764585</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4738245632.797148</v>
+        <v>3499985589.823151</v>
       </c>
       <c r="F52" t="n">
-        <v>0.100189709210006</v>
+        <v>0.1146837714635443</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05120792954623217</v>
+        <v>0.04380122522733104</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>81</v>
+      </c>
+      <c r="J52" t="n">
+        <v>104</v>
+      </c>
+      <c r="K52" t="n">
+        <v>146.4978435454926</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3090847096.789461</v>
+        <v>3037289003.841845</v>
       </c>
       <c r="F53" t="n">
-        <v>0.179681035603975</v>
+        <v>0.1839795135391744</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03040391151111479</v>
+        <v>0.02968902312983015</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3186176637.184381</v>
+        <v>4609981078.490426</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1028550606797921</v>
+        <v>0.1559759596525251</v>
       </c>
       <c r="G54" t="n">
-        <v>0.041173261196787</v>
+        <v>0.05010667104214761</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>47</v>
+      </c>
+      <c r="J54" t="n">
+        <v>105</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3075082565.102105</v>
+        <v>3737671257.279842</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1788957465726569</v>
+        <v>0.1494702846179105</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02204999200182482</v>
+        <v>0.02542411607707835</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>48</v>
+      </c>
+      <c r="J55" t="n">
+        <v>104</v>
+      </c>
+      <c r="K55" t="n">
+        <v>144.5315168511673</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1563059176.082226</v>
+        <v>1306960354.255656</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1383081530393543</v>
+        <v>0.1147408765310654</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03993105522428152</v>
+        <v>0.04914064767432825</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3024665152.371734</v>
+        <v>3851039416.783226</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1797920060088548</v>
+        <v>0.1412109557522088</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02612791378770949</v>
+        <v>0.02627085178797605</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>40</v>
+      </c>
+      <c r="J57" t="n">
+        <v>105</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1226020691.944949</v>
+        <v>1547387990.015696</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1569252287705104</v>
+        <v>0.1453408585190553</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03124232477271977</v>
+        <v>0.03918026345384333</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3884738150.557789</v>
+        <v>3595727915.049979</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1307091862573203</v>
+        <v>0.1229632254411308</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03833107998432633</v>
+        <v>0.03490987434172115</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>51</v>
+      </c>
+      <c r="J59" t="n">
+        <v>104</v>
+      </c>
+      <c r="K59" t="n">
+        <v>136.9311661764788</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3281735711.409369</v>
+        <v>2814263226.646675</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1710937564633961</v>
+        <v>0.1619814700961282</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02823541412967749</v>
+        <v>0.0318055393921327</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2293079492.585598</v>
+        <v>2796404094.15472</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1457418832497198</v>
+        <v>0.1217812242219557</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02304865932867503</v>
+        <v>0.02063808638264387</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1967759251.979224</v>
+        <v>1539361707.11877</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1729932978035406</v>
+        <v>0.1443707548396124</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04528774949635343</v>
+        <v>0.04636063117196734</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4935732368.130569</v>
+        <v>5593417528.970711</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09880523910074882</v>
+        <v>0.0855434634661421</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04397975838674819</v>
+        <v>0.04728100425902469</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>52</v>
+      </c>
+      <c r="J63" t="n">
+        <v>104</v>
+      </c>
+      <c r="K63" t="n">
+        <v>144.5982697289226</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3457886116.172386</v>
+        <v>5375436567.944563</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1918623470450202</v>
+        <v>0.1205686095170713</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03189049308113363</v>
+        <v>0.02313768019945217</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>52</v>
+      </c>
+      <c r="J64" t="n">
+        <v>104</v>
+      </c>
+      <c r="K64" t="n">
+        <v>152.5826614755811</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5782328279.137197</v>
+        <v>4487287085.744331</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1526937094987473</v>
+        <v>0.1173026801864128</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02580993155984113</v>
+        <v>0.02393361902026577</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>86</v>
+      </c>
+      <c r="J65" t="n">
+        <v>105</v>
+      </c>
+      <c r="K65" t="n">
+        <v>164.9441550484503</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4583280894.517467</v>
+        <v>4378951349.077086</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09974885346220362</v>
+        <v>0.1445603386023355</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04695142525116957</v>
+        <v>0.03412675084342616</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>51</v>
+      </c>
+      <c r="J66" t="n">
+        <v>105</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2560826211.754857</v>
+        <v>2458266646.609467</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06938711170691468</v>
+        <v>0.07233895033337376</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03432546884091364</v>
+        <v>0.04245012408360529</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5442486297.369411</v>
+        <v>4166235358.998824</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1108851613553806</v>
+        <v>0.1289502578732749</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04998410250147875</v>
+        <v>0.05030061299254076</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>52</v>
+      </c>
+      <c r="J68" t="n">
+        <v>105</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2101277565.194705</v>
+        <v>2393568401.686105</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1304550264053906</v>
+        <v>0.1110846331459415</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04838661715175301</v>
+        <v>0.05352754791218263</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2348876338.58006</v>
+        <v>3613332561.423089</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0744738871509914</v>
+        <v>0.07171549584454631</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03528076968367545</v>
+        <v>0.03809791849926528</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4466527595.281055</v>
+        <v>3807958663.981399</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1388799639662603</v>
+        <v>0.1302131230310271</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02513746603308258</v>
+        <v>0.02695501453510232</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>85</v>
+      </c>
+      <c r="J71" t="n">
+        <v>105</v>
+      </c>
+      <c r="K71" t="n">
+        <v>164.7692359810364</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1996739620.47316</v>
+        <v>1388642619.972703</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09494980210327185</v>
+        <v>0.09805106197141072</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04095393109519008</v>
+        <v>0.04324891285806154</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3441248288.283038</v>
+        <v>2390329491.460431</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0980291041345219</v>
+        <v>0.08603501043364763</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04568907294414771</v>
+        <v>0.03332313745455924</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3951708899.583609</v>
+        <v>3031412568.039145</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1631689588987033</v>
+        <v>0.155570272506179</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02258198502482818</v>
+        <v>0.02574879030702392</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>35</v>
+      </c>
+      <c r="J74" t="n">
+        <v>104</v>
+      </c>
+      <c r="K74" t="n">
+        <v>104.3299462557123</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2024032460.592981</v>
+        <v>1889114092.048129</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1663819304055099</v>
+        <v>0.1446630065391644</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02678953076785813</v>
+        <v>0.02805513454988375</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4364876394.807201</v>
+        <v>4699681451.937114</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1014801963981186</v>
+        <v>0.08238179067514796</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03034761657141352</v>
+        <v>0.03041001307399635</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>48</v>
+      </c>
+      <c r="J76" t="n">
+        <v>105</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1701966588.233771</v>
+        <v>1773410939.720601</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1291955878908985</v>
+        <v>0.1743140399027129</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02162790677245811</v>
+        <v>0.02103720054180215</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3195,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4163928077.859477</v>
+        <v>3307058155.233638</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1172264686771715</v>
+        <v>0.09121660378717139</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04489566377715387</v>
+        <v>0.04005242265135611</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>53</v>
+      </c>
+      <c r="J78" t="n">
+        <v>104</v>
+      </c>
+      <c r="K78" t="n">
+        <v>129.9349332577792</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1705820464.740228</v>
+        <v>1894791992.902375</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1164545033759991</v>
+        <v>0.1726915215779692</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03210405045925992</v>
+        <v>0.03580866497400245</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4323974892.074687</v>
+        <v>4528215436.996736</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1036901490571082</v>
+        <v>0.07125574035186132</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03846460392121136</v>
+        <v>0.03689637833103512</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>50</v>
+      </c>
+      <c r="J80" t="n">
+        <v>105</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3786602751.68294</v>
+        <v>3317410012.01461</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1050810017853984</v>
+        <v>0.1274889224396701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02985021178777343</v>
+        <v>0.02869493055852094</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>47</v>
+      </c>
+      <c r="J81" t="n">
+        <v>102</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4900693196.120895</v>
+        <v>5424689694.721832</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1458850127401295</v>
+        <v>0.1406110929882015</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01787360113944186</v>
+        <v>0.02024862739664955</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>69</v>
+      </c>
+      <c r="J82" t="n">
+        <v>105</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2362767814.262499</v>
+        <v>1969831202.919919</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1520151027715997</v>
+        <v>0.1230841800379649</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03258611515572495</v>
+        <v>0.03510294807357636</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2143770801.082402</v>
+        <v>2188941342.439337</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1115407977782974</v>
+        <v>0.09911197222551366</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04338102041610799</v>
+        <v>0.03611614594991097</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2305531062.8439</v>
+        <v>2860908270.485405</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1116964735341601</v>
+        <v>0.1213177904158177</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04061854319391821</v>
+        <v>0.05644159363236807</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>100</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2707958918.090119</v>
+        <v>2654874614.899693</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1293419938868476</v>
+        <v>0.1524824309394412</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02122558469410492</v>
+        <v>0.0276195035163834</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1479058325.925781</v>
+        <v>1418975485.295787</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1592425621471025</v>
+        <v>0.124685758109155</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03438799426679415</v>
+        <v>0.04426114424116466</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3037174529.650602</v>
+        <v>2434721052.152684</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1299739630643641</v>
+        <v>0.1533809499947539</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02618223577156906</v>
+        <v>0.03310657251460807</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>98</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2478647776.712147</v>
+        <v>3153782558.179321</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1277658019845243</v>
+        <v>0.1516466427060034</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03485470625621995</v>
+        <v>0.02561235969635524</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1488592436.701019</v>
+        <v>2121060523.48028</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1322775376347413</v>
+        <v>0.08984872001461358</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05217221452675093</v>
+        <v>0.05155410568000908</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1300801066.566632</v>
+        <v>1849712004.905127</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1814281618280598</v>
+        <v>0.1184112283159422</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04793923904120836</v>
+        <v>0.03847770459681132</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2163454468.339525</v>
+        <v>2392951658.035852</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07845787264729279</v>
+        <v>0.09515243435930393</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0410863431514101</v>
+        <v>0.04345004266733822</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3626712937.140741</v>
+        <v>3440217554.061527</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08716075230103533</v>
+        <v>0.1139204635878643</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05439715307405407</v>
+        <v>0.05271144172686839</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>48</v>
+      </c>
+      <c r="J93" t="n">
+        <v>104</v>
+      </c>
+      <c r="K93" t="n">
+        <v>124.8468056748991</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2029555729.23032</v>
+        <v>1586897496.437356</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1064878830810406</v>
+        <v>0.1372650691684302</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03732656092636797</v>
+        <v>0.030890315041126</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3198866440.320784</v>
+        <v>2539374450.536026</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1325417134287367</v>
+        <v>0.1066548619990404</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04691052152740235</v>
+        <v>0.05092639334795387</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2233274258.70821</v>
+        <v>2093515571.59026</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09805997980894519</v>
+        <v>0.08970610263163682</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04047848916014472</v>
+        <v>0.0398667470009055</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3334962223.973987</v>
+        <v>3393257139.315885</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1726637004185061</v>
+        <v>0.125033999102646</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02859478929608931</v>
+        <v>0.02180391525215963</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>50</v>
+      </c>
+      <c r="J97" t="n">
+        <v>105</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3814306807.945141</v>
+        <v>3931545432.598876</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09802446451892813</v>
+        <v>0.1252063085840354</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02324645497176805</v>
+        <v>0.02234961220629458</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>23</v>
+      </c>
+      <c r="J98" t="n">
+        <v>105</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3424073939.741238</v>
+        <v>2344207034.915924</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1203861391268409</v>
+        <v>0.09148233620299261</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0322032581481844</v>
+        <v>0.02915781473794472</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3602674032.948509</v>
+        <v>4253194311.69312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1470983293361928</v>
+        <v>0.1697631132911286</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02253941510663978</v>
+        <v>0.02220827077665638</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>43</v>
+      </c>
+      <c r="J100" t="n">
+        <v>104</v>
+      </c>
+      <c r="K100" t="n">
+        <v>146.7323857382369</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3374755828.843567</v>
+        <v>2987867319.97109</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1497675362943331</v>
+        <v>0.2029035429259324</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04674428944418058</v>
+        <v>0.04303270385884448</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
